--- a/public/plantillaStaffers.xlsx
+++ b/public/plantillaStaffers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesan\OneDrive\Escritorio\Trabajo\IpassB\IPASS_B_PANEL\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanavila/Desktop/projects/oac/IPASS-VINT/IPASS_B_PANEL/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3895A1-8B3B-49F4-BEF0-8FAE2E4FF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B921B19-71D1-2244-8569-7313FD5943D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B5F6E41-DA1B-4BEB-89FD-4C09FEBFF698}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{0B5F6E41-DA1B-4BEB-89FD-4C09FEBFF698}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PLUS</t>
   </si>
@@ -77,6 +75,12 @@
   </si>
   <si>
     <t>ACCESO APP</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TIENDA</t>
   </si>
 </sst>
 </file>
@@ -461,15 +465,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6EE124-A8D1-4BC4-93D8-DCBC4D21376B}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -513,7 +517,9 @@
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -524,49 +530,49 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I18" s="3"/>
     </row>
   </sheetData>
